--- a/Python/data/scrapList.xlsx
+++ b/Python/data/scrapList.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Sar_loop_ai\Python\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sar_loop_ai\Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B4A20C-7ED4-42B1-9523-AEE5F72774B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DE531E2-C488-4108-B648-D3F31205A52F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,15 +33,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>search_list</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>web</t>
+    <t>website_link</t>
+  </si>
+  <si>
+    <t>website_name</t>
+  </si>
+  <si>
+    <t>behance</t>
+  </si>
+  <si>
+    <t>awwwards</t>
+  </si>
+  <si>
+    <t>designspiration</t>
+  </si>
+  <si>
+    <t>pinterest</t>
+  </si>
+  <si>
+    <t>muzil</t>
+  </si>
+  <si>
+    <t>unsplash</t>
+  </si>
+  <si>
+    <t>webdesign</t>
+  </si>
+  <si>
+    <t>https://www.behance.net/search/images?tracking_source=typeahead_search_direct&amp;search=#keyword#</t>
+  </si>
+  <si>
+    <t>https://www.awwwards.com/inspiration_search/?text=#keyword#</t>
+  </si>
+  <si>
+    <t>https://in.pinterest.com/search/pins/?q=#keyword#%20#keyword2#&amp;rs=typed</t>
+  </si>
+  <si>
+    <t>https://www.webdesign-inspiration.com/web-designs/industry/#keyword#</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/s/photos/#keyword#</t>
+  </si>
+  <si>
+    <t>login page</t>
+  </si>
+  <si>
+    <t>https://search.muz.li/search/#keyword#%20#keyword#</t>
+  </si>
+  <si>
+    <t>web name</t>
+  </si>
+  <si>
+    <t>app new page</t>
+  </si>
+  <si>
+    <t>https://www.designspiration.com/search/saves/?q=#keyword#%20</t>
+  </si>
+  <si>
+    <t>app home</t>
   </si>
   <si>
     <t>app</t>
@@ -51,11 +104,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,13 +139,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,36 +468,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3321273C-E451-47C9-9C04-519568AD2873}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="keyword#"/>
+    <hyperlink ref="B3" r:id="rId2" location="keyword#"/>
+    <hyperlink ref="B4" r:id="rId3" location="keyword#%20"/>
+    <hyperlink ref="B5" r:id="rId4" location="keyword#%20#keyword2#&amp;rs=typed"/>
+    <hyperlink ref="B6" r:id="rId5" location="keyword#%20#keyword#"/>
+    <hyperlink ref="B7" r:id="rId6" location="keyword#"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Python/data/scrapList.xlsx
+++ b/Python/data/scrapList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sar_loop_ai\Python\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Sar_loop_ai\Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B1A9B0-005F-4666-AE1A-AD76221B6E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,24 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>search_list</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>website_link</t>
   </si>
@@ -62,49 +51,28 @@
     <t>unsplash</t>
   </si>
   <si>
-    <t>webdesign</t>
-  </si>
-  <si>
     <t>https://www.behance.net/search/images?tracking_source=typeahead_search_direct&amp;search=#keyword#</t>
   </si>
   <si>
     <t>https://www.awwwards.com/inspiration_search/?text=#keyword#</t>
   </si>
   <si>
-    <t>https://in.pinterest.com/search/pins/?q=#keyword#%20#keyword2#&amp;rs=typed</t>
-  </si>
-  <si>
-    <t>https://www.webdesign-inspiration.com/web-designs/industry/#keyword#</t>
-  </si>
-  <si>
     <t>https://unsplash.com/s/photos/#keyword#</t>
   </si>
   <si>
-    <t>login page</t>
-  </si>
-  <si>
     <t>https://search.muz.li/search/#keyword#%20#keyword#</t>
   </si>
   <si>
-    <t>web name</t>
-  </si>
-  <si>
-    <t>app new page</t>
-  </si>
-  <si>
     <t>https://www.designspiration.com/search/saves/?q=#keyword#%20</t>
   </si>
   <si>
-    <t>app home</t>
-  </si>
-  <si>
-    <t>app</t>
+    <t>https://in.pinterest.com/search/pins/?q=#keyword#%20#keyword2#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,11 +436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E18" activeCellId="1" sqref="B7 E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,26 +449,20 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -511,84 +473,61 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="keyword#"/>
-    <hyperlink ref="B3" r:id="rId2" location="keyword#"/>
-    <hyperlink ref="B4" r:id="rId3" location="keyword#%20"/>
-    <hyperlink ref="B5" r:id="rId4" location="keyword#%20#keyword2#&amp;rs=typed"/>
-    <hyperlink ref="B6" r:id="rId5" location="keyword#%20#keyword#"/>
-    <hyperlink ref="B7" r:id="rId6" location="keyword#"/>
+    <hyperlink ref="B2" r:id="rId1" location="keyword#" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" location="keyword#" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" location="keyword#%20" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" location="keyword#%20#keyword2#" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" location="keyword#%20#keyword#" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Python/data/scrapList.xlsx
+++ b/Python/data/scrapList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Sar_loop_ai\Python\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sar_loop_ai\Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B1A9B0-005F-4666-AE1A-AD76221B6E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,11 +435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" activeCellId="1" sqref="B7 E18"/>
+      <selection activeCell="I10" activeCellId="1" sqref="C6 I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,11 +522,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="keyword#" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" location="keyword#" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" location="keyword#%20" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" location="keyword#%20#keyword2#" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" location="keyword#%20#keyword#" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId1" location="keyword#"/>
+    <hyperlink ref="B3" r:id="rId2" location="keyword#"/>
+    <hyperlink ref="B4" r:id="rId3" location="keyword#%20"/>
+    <hyperlink ref="B5" r:id="rId4" location="keyword#%20#keyword2#"/>
+    <hyperlink ref="B6" r:id="rId5" location="keyword#%20#keyword#"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
